--- a/biology/Botanique/Ludwigia_octovalvis/Ludwigia_octovalvis.xlsx
+++ b/biology/Botanique/Ludwigia_octovalvis/Ludwigia_octovalvis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwigia octovalvis est une espèce de plante tropicale adventice de la famille des Onagraceae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis : « Mexican primrose-willow »
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oenothera octovalvis Jacq.
@@ -592,7 +608,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plante herbacée haute de 80 centimetres, parfois 2 metres de haut.
 Fleurs jaunes à 4 pétales bien séparés.</t>
@@ -623,7 +641,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwigia octovalvis a une aire de répartition étendue depuis les îles du Pacifique, l'Amérique Centrale, le Sud des États-Unis, l'Afrique du Sud et de l'Est, l'Asie du Sud-Est et l'Australie.
 La zone d'origine de cette plante est incertaine.
@@ -655,11 +675,13 @@
           <t>Mauvaise herbe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwigia octovalvis est une plante adventice, pour la culture du riz en Inde et Asie du Sud-Est, mais elle n'est pas considérée comme invasive comme d'autres espèces du genre (Ludwigia grandiflora et Ludwigia peploides). 
 L'utilisation d'urée comme fertilisant en riziculture, provoque un développement excessif de la plante qui peut se développer de façon incontrôlée dans les champs de riz
-[1].
+.
 </t>
         </is>
       </c>
